--- a/Financials/Quarterly/ASML_QTR_FIN.xlsx
+++ b/Financials/Quarterly/ASML_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807786A3-A078-4F7A-B212-FEC9961314DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASML" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>ASML</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,152 +689,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43282</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43191</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3216700</v>
+        <v>3525900</v>
       </c>
       <c r="E8" s="3">
-        <v>2682200</v>
+        <v>3114800</v>
       </c>
       <c r="F8" s="3">
-        <v>3005400</v>
+        <v>3074700</v>
       </c>
       <c r="G8" s="3">
-        <v>2872800</v>
+        <v>2563700</v>
       </c>
       <c r="H8" s="3">
-        <v>2466600</v>
+        <v>2771700</v>
       </c>
       <c r="I8" s="3">
+        <v>2746000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2357700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2281400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2238900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2130000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1823500</v>
+        <v>1963000</v>
       </c>
       <c r="E9" s="3">
-        <v>1375100</v>
+        <v>1615900</v>
       </c>
       <c r="F9" s="3">
-        <v>1648400</v>
+        <v>1743000</v>
       </c>
       <c r="G9" s="3">
-        <v>1640900</v>
+        <v>1314400</v>
       </c>
       <c r="H9" s="3">
-        <v>1355600</v>
+        <v>1537900</v>
       </c>
       <c r="I9" s="3">
+        <v>1568400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1295800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1196100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1181800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1150600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1393200</v>
+        <v>1562800</v>
       </c>
       <c r="E10" s="3">
-        <v>1307000</v>
+        <v>1498900</v>
       </c>
       <c r="F10" s="3">
-        <v>1357000</v>
+        <v>1331700</v>
       </c>
       <c r="G10" s="3">
-        <v>1231900</v>
+        <v>1249300</v>
       </c>
       <c r="H10" s="3">
-        <v>1111000</v>
+        <v>1233700</v>
       </c>
       <c r="I10" s="3">
+        <v>1177500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1062000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1085300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1057200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>979400</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,37 +871,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>446200</v>
+        <v>496400</v>
       </c>
       <c r="E12" s="3">
-        <v>419200</v>
+        <v>444600</v>
       </c>
       <c r="F12" s="3">
-        <v>372600</v>
+        <v>426500</v>
       </c>
       <c r="G12" s="3">
-        <v>369200</v>
+        <v>400700</v>
       </c>
       <c r="H12" s="3">
-        <v>367100</v>
+        <v>356100</v>
       </c>
       <c r="I12" s="3">
+        <v>352900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>350800</v>
+      </c>
+      <c r="K12" s="3">
         <v>369900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>337300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>320900</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -869,8 +937,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -898,8 +972,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -927,8 +1007,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +1023,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2407500</v>
+        <v>2610400</v>
       </c>
       <c r="E17" s="3">
-        <v>1928300</v>
+        <v>2197200</v>
       </c>
       <c r="F17" s="3">
-        <v>2125100</v>
+        <v>2301200</v>
       </c>
       <c r="G17" s="3">
-        <v>2103200</v>
+        <v>1843200</v>
       </c>
       <c r="H17" s="3">
-        <v>1814200</v>
+        <v>1993600</v>
       </c>
       <c r="I17" s="3">
+        <v>2010400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1734100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1653700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1616800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1548300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>809200</v>
+        <v>915400</v>
       </c>
       <c r="E18" s="3">
-        <v>753800</v>
+        <v>917600</v>
       </c>
       <c r="F18" s="3">
-        <v>880400</v>
+        <v>773500</v>
       </c>
       <c r="G18" s="3">
-        <v>769500</v>
+        <v>720500</v>
       </c>
       <c r="H18" s="3">
-        <v>652400</v>
+        <v>778100</v>
       </c>
       <c r="I18" s="3">
+        <v>735600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>623600</v>
+      </c>
+      <c r="K18" s="3">
         <v>627800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>622100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>581700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1008,66 +1108,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-2600</v>
+        <v>-8400</v>
       </c>
       <c r="E20" s="3">
-        <v>-12300</v>
+        <v>-9100</v>
       </c>
       <c r="F20" s="3">
-        <v>-15100</v>
+        <v>-2500</v>
       </c>
       <c r="G20" s="3">
-        <v>-14700</v>
+        <v>-11800</v>
       </c>
       <c r="H20" s="3">
-        <v>-12700</v>
+        <v>-14500</v>
       </c>
       <c r="I20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-16600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>87700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-39800</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>923700</v>
+        <v>1030900</v>
       </c>
       <c r="E21" s="3">
-        <v>861900</v>
+        <v>1031900</v>
       </c>
       <c r="F21" s="3">
-        <v>985300</v>
+        <v>882900</v>
       </c>
       <c r="G21" s="3">
-        <v>873700</v>
+        <v>823900</v>
       </c>
       <c r="H21" s="3">
-        <v>761700</v>
+        <v>878400</v>
       </c>
       <c r="I21" s="3">
+        <v>835100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>728100</v>
+      </c>
+      <c r="K21" s="3">
         <v>740400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>830800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>644900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1095,66 +1209,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>806600</v>
+        <v>907000</v>
       </c>
       <c r="E23" s="3">
-        <v>741500</v>
+        <v>908500</v>
       </c>
       <c r="F23" s="3">
-        <v>865200</v>
+        <v>771000</v>
       </c>
       <c r="G23" s="3">
-        <v>754900</v>
+        <v>708800</v>
       </c>
       <c r="H23" s="3">
-        <v>639700</v>
+        <v>763600</v>
       </c>
       <c r="I23" s="3">
+        <v>721600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>611500</v>
+      </c>
+      <c r="K23" s="3">
         <v>611200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>709800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>541900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>126200</v>
+        <v>45000</v>
       </c>
       <c r="E24" s="3">
-        <v>87300</v>
+        <v>145400</v>
       </c>
       <c r="F24" s="3">
-        <v>90900</v>
+        <v>120600</v>
       </c>
       <c r="G24" s="3">
-        <v>100900</v>
+        <v>83500</v>
       </c>
       <c r="H24" s="3">
-        <v>92400</v>
+        <v>81600</v>
       </c>
       <c r="I24" s="3">
+        <v>96500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>88300</v>
+      </c>
+      <c r="K24" s="3">
         <v>80500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>94500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>77200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1182,66 +1314,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>680500</v>
+        <v>862000</v>
       </c>
       <c r="E26" s="3">
-        <v>654200</v>
+        <v>763100</v>
       </c>
       <c r="F26" s="3">
-        <v>774400</v>
+        <v>650400</v>
       </c>
       <c r="G26" s="3">
-        <v>653900</v>
+        <v>625300</v>
       </c>
       <c r="H26" s="3">
-        <v>547300</v>
+        <v>682100</v>
       </c>
       <c r="I26" s="3">
+        <v>625100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>523200</v>
+      </c>
+      <c r="K26" s="3">
         <v>530700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>615300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>464700</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>685500</v>
+        <v>883600</v>
       </c>
       <c r="E27" s="3">
-        <v>633500</v>
+        <v>763400</v>
       </c>
       <c r="F27" s="3">
-        <v>754800</v>
+        <v>655200</v>
       </c>
       <c r="G27" s="3">
-        <v>653900</v>
+        <v>605500</v>
       </c>
       <c r="H27" s="3">
-        <v>547300</v>
+        <v>663300</v>
       </c>
       <c r="I27" s="3">
+        <v>625100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>523200</v>
+      </c>
+      <c r="K27" s="3">
         <v>530700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>615300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>464700</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1269,8 +1419,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1298,8 +1454,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1327,8 +1489,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1356,66 +1524,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>2600</v>
+        <v>8400</v>
       </c>
       <c r="E32" s="3">
-        <v>12300</v>
+        <v>9100</v>
       </c>
       <c r="F32" s="3">
-        <v>15100</v>
+        <v>2500</v>
       </c>
       <c r="G32" s="3">
-        <v>14700</v>
+        <v>11800</v>
       </c>
       <c r="H32" s="3">
-        <v>12700</v>
+        <v>14500</v>
       </c>
       <c r="I32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K32" s="3">
         <v>16600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-87700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>685500</v>
+        <v>883600</v>
       </c>
       <c r="E33" s="3">
-        <v>633500</v>
+        <v>763400</v>
       </c>
       <c r="F33" s="3">
-        <v>754800</v>
+        <v>655200</v>
       </c>
       <c r="G33" s="3">
-        <v>653900</v>
+        <v>605500</v>
       </c>
       <c r="H33" s="3">
-        <v>547300</v>
+        <v>663300</v>
       </c>
       <c r="I33" s="3">
+        <v>625100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>523200</v>
+      </c>
+      <c r="K33" s="3">
         <v>530700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>615300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>464700</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1443,71 +1629,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>685500</v>
+        <v>883600</v>
       </c>
       <c r="E35" s="3">
-        <v>633500</v>
+        <v>763400</v>
       </c>
       <c r="F35" s="3">
-        <v>754800</v>
+        <v>655200</v>
       </c>
       <c r="G35" s="3">
-        <v>653900</v>
+        <v>605500</v>
       </c>
       <c r="H35" s="3">
-        <v>547300</v>
+        <v>663300</v>
       </c>
       <c r="I35" s="3">
+        <v>625100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>523200</v>
+      </c>
+      <c r="K35" s="3">
         <v>530700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>615300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>464700</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43282</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43191</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1519,8 +1723,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1532,269 +1738,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2729900</v>
+        <v>3501800</v>
       </c>
       <c r="E41" s="3">
-        <v>2893200</v>
+        <v>2472000</v>
       </c>
       <c r="F41" s="3">
-        <v>2651600</v>
+        <v>2609400</v>
       </c>
       <c r="G41" s="3">
-        <v>2438700</v>
+        <v>2765500</v>
       </c>
       <c r="H41" s="3">
-        <v>2246900</v>
+        <v>2534600</v>
       </c>
       <c r="I41" s="3">
+        <v>2331000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2147700</v>
+      </c>
+      <c r="K41" s="3">
         <v>3416500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3412100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3419300</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>768000</v>
+        <v>1024700</v>
       </c>
       <c r="E42" s="3">
-        <v>856100</v>
+        <v>835100</v>
       </c>
       <c r="F42" s="3">
-        <v>1208200</v>
+        <v>734100</v>
       </c>
       <c r="G42" s="3">
-        <v>704300</v>
+        <v>818300</v>
       </c>
       <c r="H42" s="3">
-        <v>704300</v>
+        <v>1154900</v>
       </c>
       <c r="I42" s="3">
+        <v>673200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>673200</v>
+      </c>
+      <c r="K42" s="3">
         <v>1085800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1349900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1643300</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2384500</v>
+        <v>2563600</v>
       </c>
       <c r="E43" s="3">
-        <v>2517400</v>
+        <v>3265300</v>
       </c>
       <c r="F43" s="3">
-        <v>2222000</v>
+        <v>2598600</v>
       </c>
       <c r="G43" s="3">
-        <v>2202100</v>
+        <v>2419100</v>
       </c>
       <c r="H43" s="3">
-        <v>1961200</v>
+        <v>2391400</v>
       </c>
       <c r="I43" s="3">
+        <v>2104900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1874600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1583100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1360700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1954900</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3776700</v>
+        <v>3859100</v>
       </c>
       <c r="E44" s="3">
-        <v>3793200</v>
+        <v>3817800</v>
       </c>
       <c r="F44" s="3">
-        <v>3472600</v>
+        <v>3610000</v>
       </c>
       <c r="G44" s="3">
-        <v>3519700</v>
+        <v>3625700</v>
       </c>
       <c r="H44" s="3">
-        <v>3682100</v>
+        <v>3316200</v>
       </c>
       <c r="I44" s="3">
+        <v>3364300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3519600</v>
+      </c>
+      <c r="K44" s="3">
         <v>3516400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3264200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3165600</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1156600</v>
+        <v>866800</v>
       </c>
       <c r="E45" s="3">
-        <v>754200</v>
+        <v>732200</v>
       </c>
       <c r="F45" s="3">
-        <v>1018000</v>
+        <v>786100</v>
       </c>
       <c r="G45" s="3">
-        <v>870700</v>
+        <v>708000</v>
       </c>
       <c r="H45" s="3">
-        <v>844700</v>
+        <v>572800</v>
       </c>
       <c r="I45" s="3">
+        <v>832300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>807400</v>
+      </c>
+      <c r="K45" s="3">
         <v>692100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>657900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>634300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>10815700</v>
+        <v>11816100</v>
       </c>
       <c r="E46" s="3">
-        <v>10814000</v>
+        <v>11122400</v>
       </c>
       <c r="F46" s="3">
-        <v>10572500</v>
+        <v>10338200</v>
       </c>
       <c r="G46" s="3">
-        <v>9735500</v>
+        <v>10336600</v>
       </c>
       <c r="H46" s="3">
-        <v>9439200</v>
+        <v>9969800</v>
       </c>
       <c r="I46" s="3">
+        <v>9305700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>9022500</v>
+      </c>
+      <c r="K46" s="3">
         <v>10293800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>10044800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>10817500</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1376300</v>
+        <v>1336200</v>
       </c>
       <c r="E47" s="3">
-        <v>1366000</v>
+        <v>1322500</v>
       </c>
       <c r="F47" s="3">
-        <v>1463900</v>
+        <v>1315500</v>
       </c>
       <c r="G47" s="3">
-        <v>1492900</v>
+        <v>1305700</v>
       </c>
       <c r="H47" s="3">
-        <v>1317400</v>
+        <v>1280900</v>
       </c>
       <c r="I47" s="3">
+        <v>1426900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1259200</v>
+      </c>
+      <c r="K47" s="3">
         <v>250700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>137600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2009600</v>
+        <v>1937800</v>
       </c>
       <c r="E48" s="3">
-        <v>1976100</v>
+        <v>1909500</v>
       </c>
       <c r="F48" s="3">
-        <v>1879000</v>
+        <v>1920800</v>
       </c>
       <c r="G48" s="3">
-        <v>1821800</v>
+        <v>1888900</v>
       </c>
       <c r="H48" s="3">
-        <v>1839700</v>
+        <v>1923700</v>
       </c>
       <c r="I48" s="3">
+        <v>1741300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1758500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1904400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1980500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1863300</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>6657100</v>
+        <v>6333700</v>
       </c>
       <c r="E49" s="3">
-        <v>6676300</v>
+        <v>6339100</v>
       </c>
       <c r="F49" s="3">
-        <v>6699100</v>
+        <v>6363300</v>
       </c>
       <c r="G49" s="3">
-        <v>6756200</v>
+        <v>6381500</v>
       </c>
       <c r="H49" s="3">
-        <v>6897700</v>
+        <v>6403300</v>
       </c>
       <c r="I49" s="3">
+        <v>6458000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>6593100</v>
+      </c>
+      <c r="K49" s="3">
         <v>7117500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>7273900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3832500</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1822,8 +2084,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1851,37 +2119,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1137100</v>
+        <v>1169600</v>
       </c>
       <c r="E52" s="3">
-        <v>1052400</v>
+        <v>1137700</v>
       </c>
       <c r="F52" s="3">
-        <v>744700</v>
+        <v>1086900</v>
       </c>
       <c r="G52" s="3">
-        <v>731200</v>
+        <v>1006000</v>
       </c>
       <c r="H52" s="3">
-        <v>780200</v>
+        <v>830200</v>
       </c>
       <c r="I52" s="3">
+        <v>698900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>745800</v>
+      </c>
+      <c r="K52" s="3">
         <v>769500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>759700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>777400</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1909,37 +2189,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>21995800</v>
+        <v>22593400</v>
       </c>
       <c r="E54" s="3">
-        <v>21884700</v>
+        <v>21831200</v>
       </c>
       <c r="F54" s="3">
-        <v>21359100</v>
+        <v>21024700</v>
       </c>
       <c r="G54" s="3">
-        <v>20537400</v>
+        <v>20918600</v>
       </c>
       <c r="H54" s="3">
-        <v>20274200</v>
+        <v>20407800</v>
       </c>
       <c r="I54" s="3">
+        <v>19630800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>19379100</v>
+      </c>
+      <c r="K54" s="3">
         <v>20336000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>20196500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>17375000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1951,8 +2243,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1964,182 +2258,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>50</v>
+      <c r="D57" s="3">
+        <v>1081600</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="3">
-        <v>982800</v>
+      <c r="F57" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>50</v>
+      <c r="H57" s="3">
+        <v>939400</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J57" s="3">
-        <v>696300</v>
+      <c r="J57" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>696300</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>50</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F58" s="3">
-        <v>29600</v>
+      <c r="F58" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>50</v>
+      <c r="H58" s="3">
+        <v>28300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J58" s="3">
-        <v>290700</v>
+      <c r="J58" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>290700</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3968400</v>
+        <v>3172900</v>
       </c>
       <c r="E59" s="3">
-        <v>3676600</v>
+        <v>3978700</v>
       </c>
       <c r="F59" s="3">
-        <v>2910300</v>
+        <v>3793200</v>
       </c>
       <c r="G59" s="3">
-        <v>3491100</v>
+        <v>3514300</v>
       </c>
       <c r="H59" s="3">
-        <v>3668200</v>
+        <v>2589000</v>
       </c>
       <c r="I59" s="3">
+        <v>3337000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3506200</v>
+      </c>
+      <c r="K59" s="3">
         <v>3375200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2863800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3840900</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3968400</v>
+        <v>4254500</v>
       </c>
       <c r="E60" s="3">
-        <v>3676600</v>
+        <v>3978700</v>
       </c>
       <c r="F60" s="3">
-        <v>3922800</v>
+        <v>3793200</v>
       </c>
       <c r="G60" s="3">
-        <v>3491100</v>
+        <v>3514300</v>
       </c>
       <c r="H60" s="3">
-        <v>3668200</v>
+        <v>3556700</v>
       </c>
       <c r="I60" s="3">
+        <v>3337000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3506200</v>
+      </c>
+      <c r="K60" s="3">
         <v>3375200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3850800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3840900</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3530500</v>
+        <v>3395700</v>
       </c>
       <c r="E61" s="3">
-        <v>3496300</v>
+        <v>3350100</v>
       </c>
       <c r="F61" s="3">
-        <v>3521500</v>
+        <v>3374600</v>
       </c>
       <c r="G61" s="3">
-        <v>3517600</v>
+        <v>3342000</v>
       </c>
       <c r="H61" s="3">
-        <v>3516100</v>
+        <v>3366100</v>
       </c>
       <c r="I61" s="3">
+        <v>3362300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3360900</v>
+      </c>
+      <c r="K61" s="3">
         <v>3568700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3605700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2806100</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1793700</v>
+        <v>1882100</v>
       </c>
       <c r="E62" s="3">
-        <v>1727500</v>
+        <v>1987700</v>
       </c>
       <c r="F62" s="3">
-        <v>1383000</v>
+        <v>1714500</v>
       </c>
       <c r="G62" s="3">
-        <v>1383600</v>
+        <v>1651200</v>
       </c>
       <c r="H62" s="3">
-        <v>1313500</v>
+        <v>1417700</v>
       </c>
       <c r="I62" s="3">
+        <v>1322500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1255500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1368800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1212700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>735000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2499,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2196,8 +2534,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,37 +2569,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9292600</v>
+        <v>9532300</v>
       </c>
       <c r="E66" s="3">
-        <v>8900400</v>
+        <v>9316600</v>
       </c>
       <c r="F66" s="3">
-        <v>8827300</v>
+        <v>8882300</v>
       </c>
       <c r="G66" s="3">
-        <v>8392300</v>
+        <v>8507500</v>
       </c>
       <c r="H66" s="3">
-        <v>8497800</v>
+        <v>8316800</v>
       </c>
       <c r="I66" s="3">
+        <v>8021800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>8122600</v>
+      </c>
+      <c r="K66" s="3">
         <v>8312700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8669200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7382100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2623,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2654,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2689,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2724,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,8 +2759,14 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2412,8 +2794,14 @@
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2829,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2864,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,37 +2899,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12703200</v>
+        <v>13061100</v>
       </c>
       <c r="E76" s="3">
-        <v>12984300</v>
+        <v>12514700</v>
       </c>
       <c r="F76" s="3">
-        <v>12531800</v>
+        <v>12142400</v>
       </c>
       <c r="G76" s="3">
-        <v>12145200</v>
+        <v>12411100</v>
       </c>
       <c r="H76" s="3">
-        <v>11776400</v>
+        <v>12091000</v>
       </c>
       <c r="I76" s="3">
+        <v>11609000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>11256500</v>
+      </c>
+      <c r="K76" s="3">
         <v>12023300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>11527400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9992900</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2969,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43282</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43191</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>685500</v>
+        <v>883600</v>
       </c>
       <c r="E81" s="3">
-        <v>633500</v>
+        <v>763400</v>
       </c>
       <c r="F81" s="3">
-        <v>754800</v>
+        <v>655200</v>
       </c>
       <c r="G81" s="3">
-        <v>653900</v>
+        <v>605500</v>
       </c>
       <c r="H81" s="3">
-        <v>547300</v>
+        <v>663300</v>
       </c>
       <c r="I81" s="3">
+        <v>625100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>523200</v>
+      </c>
+      <c r="K81" s="3">
         <v>530700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>615300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>464700</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +3063,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>117000</v>
+        <v>123900</v>
       </c>
       <c r="E83" s="3">
-        <v>120400</v>
+        <v>123400</v>
       </c>
       <c r="F83" s="3">
-        <v>120100</v>
+        <v>111900</v>
       </c>
       <c r="G83" s="3">
-        <v>118800</v>
+        <v>115100</v>
       </c>
       <c r="H83" s="3">
-        <v>122000</v>
+        <v>114800</v>
       </c>
       <c r="I83" s="3">
+        <v>113500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>116600</v>
+      </c>
+      <c r="K83" s="3">
         <v>129200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>121100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>102900</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +3129,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +3164,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +3199,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +3234,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3269,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>891000</v>
+        <v>1829300</v>
       </c>
       <c r="E89" s="3">
-        <v>224200</v>
+        <v>552200</v>
       </c>
       <c r="F89" s="3">
-        <v>1216900</v>
+        <v>851700</v>
       </c>
       <c r="G89" s="3">
-        <v>469500</v>
+        <v>214300</v>
       </c>
       <c r="H89" s="3">
-        <v>622500</v>
+        <v>1163200</v>
       </c>
       <c r="I89" s="3">
+        <v>448800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>595000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-197700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1400700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3323,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-158900</v>
+        <v>-213300</v>
       </c>
       <c r="E91" s="3">
-        <v>-158800</v>
+        <v>-144800</v>
       </c>
       <c r="F91" s="3">
-        <v>-182100</v>
+        <v>-140900</v>
       </c>
       <c r="G91" s="3">
-        <v>-114800</v>
+        <v>-145000</v>
       </c>
       <c r="H91" s="3">
-        <v>-72000</v>
+        <v>-166400</v>
       </c>
       <c r="I91" s="3">
+        <v>-107400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-51400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-113700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3389,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3424,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-72700</v>
+        <v>-411800</v>
       </c>
       <c r="E94" s="3">
-        <v>213900</v>
+        <v>-274700</v>
       </c>
       <c r="F94" s="3">
-        <v>-626000</v>
+        <v>-69500</v>
       </c>
       <c r="G94" s="3">
-        <v>-84000</v>
+        <v>204400</v>
       </c>
       <c r="H94" s="3">
-        <v>-886100</v>
+        <v>-598400</v>
       </c>
       <c r="I94" s="3">
+        <v>-80300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-847000</v>
+      </c>
+      <c r="K94" s="3">
         <v>176700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2931900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-568700</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,19 +3478,21 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-700900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-669900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3007,8 +3509,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3544,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3579,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,91 +3614,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-992100</v>
+        <v>-396100</v>
       </c>
       <c r="E100" s="3">
-        <v>-188000</v>
+        <v>-410500</v>
       </c>
       <c r="F100" s="3">
-        <v>-378700</v>
+        <v>-948300</v>
       </c>
       <c r="G100" s="3">
-        <v>-180800</v>
+        <v>-179700</v>
       </c>
       <c r="H100" s="3">
-        <v>-873700</v>
+        <v>-362000</v>
       </c>
       <c r="I100" s="3">
+        <v>-172800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-835100</v>
+      </c>
+      <c r="K100" s="3">
         <v>13900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1518100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1738600</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10400</v>
+        <v>8400</v>
       </c>
       <c r="E101" s="3">
-        <v>-8500</v>
+        <v>-4500</v>
       </c>
       <c r="F101" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-32300</v>
-      </c>
       <c r="I101" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="K101" s="3">
         <v>11500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>5900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-8300</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-163300</v>
+        <v>1029900</v>
       </c>
       <c r="E102" s="3">
-        <v>241600</v>
+        <v>-137400</v>
       </c>
       <c r="F102" s="3">
-        <v>212900</v>
+        <v>-156100</v>
       </c>
       <c r="G102" s="3">
-        <v>191800</v>
+        <v>230900</v>
       </c>
       <c r="H102" s="3">
-        <v>-1169600</v>
+        <v>203500</v>
       </c>
       <c r="I102" s="3">
+        <v>183300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1118000</v>
+      </c>
+      <c r="K102" s="3">
         <v>4300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-7200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1158400</v>
       </c>
     </row>

--- a/Financials/Quarterly/ASML_QTR_FIN.xlsx
+++ b/Financials/Quarterly/ASML_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807786A3-A078-4F7A-B212-FEC9961314DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="ASML" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>ASML</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,177 +654,228 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43737</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43282</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43191</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>42918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>42827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3525900</v>
+        <v>4432000</v>
       </c>
       <c r="E8" s="3">
-        <v>3114800</v>
+        <v>3279200</v>
       </c>
       <c r="F8" s="3">
-        <v>3074700</v>
+        <v>2819600</v>
       </c>
       <c r="G8" s="3">
+        <v>2447600</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3450500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3048200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3009000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2563700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>2771700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>2746000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>2357700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>2281400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>2238900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
         <v>2130000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1963000</v>
+        <v>2301700</v>
       </c>
       <c r="E9" s="3">
-        <v>1615900</v>
+        <v>1844700</v>
       </c>
       <c r="F9" s="3">
-        <v>1743000</v>
+        <v>1606000</v>
       </c>
       <c r="G9" s="3">
+        <v>1428600</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1921100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1581300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1705700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1314400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="L9" s="3">
         <v>1537900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="M9" s="3">
         <v>1568400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
         <v>1295800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>1196100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="3">
         <v>1181800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="Q9" s="3">
         <v>1150600</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1562800</v>
+        <v>2130200</v>
       </c>
       <c r="E10" s="3">
-        <v>1498900</v>
+        <v>1434400</v>
       </c>
       <c r="F10" s="3">
-        <v>1331700</v>
+        <v>1213500</v>
       </c>
       <c r="G10" s="3">
+        <v>1018900</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1529400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1466800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1303200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1249300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="L10" s="3">
         <v>1233700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>1177500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>1062000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>1085300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="P10" s="3">
         <v>1057200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="Q10" s="3">
         <v>979400</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,43 +889,59 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>496400</v>
+        <v>566700</v>
       </c>
       <c r="E12" s="3">
-        <v>444600</v>
+        <v>540500</v>
       </c>
       <c r="F12" s="3">
-        <v>426500</v>
+        <v>535200</v>
       </c>
       <c r="G12" s="3">
+        <v>519000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>485800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>435100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>417300</v>
+      </c>
+      <c r="K12" s="3">
         <v>400700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="L12" s="3">
         <v>356100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="M12" s="3">
         <v>352900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="N12" s="3">
         <v>350800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="O12" s="3">
         <v>369900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="P12" s="3">
         <v>337300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="Q12" s="3">
         <v>320900</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -943,8 +975,20 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -978,8 +1022,20 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1069,20 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1025,78 +1093,106 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2610400</v>
+        <v>3030400</v>
       </c>
       <c r="E17" s="3">
-        <v>2197200</v>
+        <v>2526400</v>
       </c>
       <c r="F17" s="3">
-        <v>2301200</v>
+        <v>2276800</v>
       </c>
       <c r="G17" s="3">
+        <v>2080500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2554600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2150200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2252000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1843200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>1993600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>2010400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>1734100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>1653700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>1616800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="Q17" s="3">
         <v>1548300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>915400</v>
+        <v>1401600</v>
       </c>
       <c r="E18" s="3">
-        <v>917600</v>
+        <v>752800</v>
       </c>
       <c r="F18" s="3">
-        <v>773500</v>
+        <v>542700</v>
       </c>
       <c r="G18" s="3">
+        <v>367100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>895900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>897900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>757000</v>
+      </c>
+      <c r="K18" s="3">
         <v>720500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>778100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>735600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>623600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>627800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>622100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="Q18" s="3">
         <v>581700</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1110,78 +1206,106 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-8400</v>
+        <v>-5300</v>
       </c>
       <c r="E20" s="3">
-        <v>-9100</v>
+        <v>-5900</v>
       </c>
       <c r="F20" s="3">
-        <v>-2500</v>
+        <v>-7600</v>
       </c>
       <c r="G20" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-11800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>-14500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>-14000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <v>-12100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>-16600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3">
         <v>87700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="Q20" s="3">
         <v>-39800</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1030900</v>
+        <v>1531300</v>
       </c>
       <c r="E21" s="3">
-        <v>1031900</v>
+        <v>870300</v>
       </c>
       <c r="F21" s="3">
-        <v>882900</v>
+        <v>654200</v>
       </c>
       <c r="G21" s="3">
+        <v>473500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1008800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1009800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>864000</v>
+      </c>
+      <c r="K21" s="3">
         <v>823900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>878400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>835100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>728100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>740400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>830800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="Q21" s="3">
         <v>644900</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1215,78 +1339,114 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>907000</v>
+        <v>1396300</v>
       </c>
       <c r="E23" s="3">
-        <v>908500</v>
+        <v>746900</v>
       </c>
       <c r="F23" s="3">
-        <v>771000</v>
+        <v>535200</v>
       </c>
       <c r="G23" s="3">
+        <v>358400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>887600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>889100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>754500</v>
+      </c>
+      <c r="K23" s="3">
         <v>708800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>763600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>721600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>611500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>611200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>709800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="Q23" s="3">
         <v>541900</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>45000</v>
+        <v>136700</v>
       </c>
       <c r="E24" s="3">
-        <v>145400</v>
+        <v>71400</v>
       </c>
       <c r="F24" s="3">
-        <v>120600</v>
+        <v>21000</v>
       </c>
       <c r="G24" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>44000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>142300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>118000</v>
+      </c>
+      <c r="K24" s="3">
         <v>83500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="L24" s="3">
         <v>81600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="M24" s="3">
         <v>96500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="N24" s="3">
         <v>88300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
         <v>80500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="P24" s="3">
         <v>94500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="Q24" s="3">
         <v>77200</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1320,78 +1480,114 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>862000</v>
+        <v>1259600</v>
       </c>
       <c r="E26" s="3">
-        <v>763100</v>
+        <v>675500</v>
       </c>
       <c r="F26" s="3">
-        <v>650400</v>
+        <v>514200</v>
       </c>
       <c r="G26" s="3">
+        <v>377100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>843600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>746700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>636500</v>
+      </c>
+      <c r="K26" s="3">
         <v>625300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>682100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>625100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>523200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>530700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>615300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="Q26" s="3">
         <v>464700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>883600</v>
+        <v>1245200</v>
       </c>
       <c r="E27" s="3">
-        <v>763400</v>
+        <v>688200</v>
       </c>
       <c r="F27" s="3">
-        <v>655200</v>
+        <v>522600</v>
       </c>
       <c r="G27" s="3">
+        <v>390200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>864700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>747100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>641200</v>
+      </c>
+      <c r="K27" s="3">
         <v>605500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>663300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>625100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>523200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>530700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>615300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="Q27" s="3">
         <v>464700</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1425,8 +1621,20 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1460,8 +1668,20 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1495,8 +1715,20 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,78 +1762,114 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>8400</v>
+        <v>5300</v>
       </c>
       <c r="E32" s="3">
-        <v>9100</v>
+        <v>5900</v>
       </c>
       <c r="F32" s="3">
-        <v>2500</v>
+        <v>7600</v>
       </c>
       <c r="G32" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K32" s="3">
         <v>11800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>14500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>14000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="N32" s="3">
         <v>12100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>16600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3">
         <v>-87700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="Q32" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>883600</v>
+        <v>1245200</v>
       </c>
       <c r="E33" s="3">
-        <v>763400</v>
+        <v>688200</v>
       </c>
       <c r="F33" s="3">
-        <v>655200</v>
+        <v>522600</v>
       </c>
       <c r="G33" s="3">
+        <v>390200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>864700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>747100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>641200</v>
+      </c>
+      <c r="K33" s="3">
         <v>605500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>663300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>625100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>523200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>530700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>615300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="Q33" s="3">
         <v>464700</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1635,83 +1903,119 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>883600</v>
+        <v>1245200</v>
       </c>
       <c r="E35" s="3">
-        <v>763400</v>
+        <v>688200</v>
       </c>
       <c r="F35" s="3">
-        <v>655200</v>
+        <v>522600</v>
       </c>
       <c r="G35" s="3">
+        <v>390200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>864700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>747100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>641200</v>
+      </c>
+      <c r="K35" s="3">
         <v>605500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>663300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>625100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>523200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>530700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>615300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
         <v>464700</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43737</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43282</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43191</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>42918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>42827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1725,8 +2029,12 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1740,323 +2048,435 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3501800</v>
+        <v>3878500</v>
       </c>
       <c r="E41" s="3">
-        <v>2472000</v>
+        <v>1741500</v>
       </c>
       <c r="F41" s="3">
-        <v>2609400</v>
+        <v>1823900</v>
       </c>
       <c r="G41" s="3">
+        <v>2473800</v>
+      </c>
+      <c r="H41" s="3">
+        <v>3427000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2419100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2553600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2765500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>2534600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>2331000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>2147700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>3416500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3">
         <v>3412100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="Q41" s="3">
         <v>3419300</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1024700</v>
+        <v>1302000</v>
       </c>
       <c r="E42" s="3">
-        <v>835100</v>
+        <v>531200</v>
       </c>
       <c r="F42" s="3">
-        <v>734100</v>
+        <v>739500</v>
       </c>
       <c r="G42" s="3">
+        <v>1122300</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1002800</v>
+      </c>
+      <c r="I42" s="3">
+        <v>817200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>718400</v>
+      </c>
+      <c r="K42" s="3">
         <v>818300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="L42" s="3">
         <v>1154900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="M42" s="3">
         <v>673200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="N42" s="3">
         <v>673200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="O42" s="3">
         <v>1085800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="P42" s="3">
         <v>1349900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="Q42" s="3">
         <v>1643300</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2563600</v>
+        <v>3031600</v>
       </c>
       <c r="E43" s="3">
-        <v>3265300</v>
+        <v>3637700</v>
       </c>
       <c r="F43" s="3">
-        <v>2598600</v>
+        <v>3040500</v>
       </c>
       <c r="G43" s="3">
+        <v>2855600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>2508800</v>
+      </c>
+      <c r="I43" s="3">
+        <v>3195500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2543100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2419100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="L43" s="3">
         <v>2391400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="M43" s="3">
         <v>2104900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="N43" s="3">
         <v>1874600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="O43" s="3">
         <v>1583100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="P43" s="3">
         <v>1360700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="Q43" s="3">
         <v>1954900</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3859100</v>
+        <v>4182500</v>
       </c>
       <c r="E44" s="3">
-        <v>3817800</v>
+        <v>4276700</v>
       </c>
       <c r="F44" s="3">
-        <v>3610000</v>
+        <v>4297700</v>
       </c>
       <c r="G44" s="3">
+        <v>4133800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3776600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3736200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3532800</v>
+      </c>
+      <c r="K44" s="3">
         <v>3625700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="L44" s="3">
         <v>3316200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
         <v>3364300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="N44" s="3">
         <v>3519600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
         <v>3516400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="P44" s="3">
         <v>3264200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="Q44" s="3">
         <v>3165600</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>866800</v>
+        <v>925400</v>
       </c>
       <c r="E45" s="3">
-        <v>732200</v>
+        <v>896200</v>
       </c>
       <c r="F45" s="3">
-        <v>786100</v>
+        <v>963500</v>
       </c>
       <c r="G45" s="3">
+        <v>829800</v>
+      </c>
+      <c r="H45" s="3">
+        <v>848300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>716600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>769300</v>
+      </c>
+      <c r="K45" s="3">
         <v>708000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="L45" s="3">
         <v>572800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="M45" s="3">
         <v>832300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="N45" s="3">
         <v>807400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="O45" s="3">
         <v>692100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="P45" s="3">
         <v>657900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="Q45" s="3">
         <v>634300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>11816100</v>
+        <v>13319900</v>
       </c>
       <c r="E46" s="3">
-        <v>11122400</v>
+        <v>11083300</v>
       </c>
       <c r="F46" s="3">
-        <v>10338200</v>
+        <v>10865000</v>
       </c>
       <c r="G46" s="3">
+        <v>11415100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>11563500</v>
+      </c>
+      <c r="I46" s="3">
+        <v>10884600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>10117200</v>
+      </c>
+      <c r="K46" s="3">
         <v>10336600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>9969800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>9305700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>9022500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>10293800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="P46" s="3">
         <v>10044800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="Q46" s="3">
         <v>10817500</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1336200</v>
+        <v>1377000</v>
       </c>
       <c r="E47" s="3">
-        <v>1322500</v>
+        <v>1709800</v>
       </c>
       <c r="F47" s="3">
-        <v>1315500</v>
+        <v>1489100</v>
       </c>
       <c r="G47" s="3">
+        <v>1463600</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1307600</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1294200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1287400</v>
+      </c>
+      <c r="K47" s="3">
         <v>1305700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="L47" s="3">
         <v>1280900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="M47" s="3">
         <v>1426900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="N47" s="3">
         <v>1259200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="O47" s="3">
         <v>250700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="P47" s="3">
         <v>137600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="Q47" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1937800</v>
+        <v>2550900</v>
       </c>
       <c r="E48" s="3">
-        <v>1909500</v>
+        <v>2331700</v>
       </c>
       <c r="F48" s="3">
-        <v>1920800</v>
+        <v>2064900</v>
       </c>
       <c r="G48" s="3">
+        <v>1943400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1896400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1868700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1879800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1888900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>1923700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>1741300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>1758500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>1904400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>1980500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="Q48" s="3">
         <v>1863300</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>6333700</v>
+        <v>6198800</v>
       </c>
       <c r="E49" s="3">
-        <v>6339100</v>
+        <v>6219000</v>
       </c>
       <c r="F49" s="3">
-        <v>6363300</v>
+        <v>6238700</v>
       </c>
       <c r="G49" s="3">
+        <v>6258200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>6198300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>6203600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>6227200</v>
+      </c>
+      <c r="K49" s="3">
         <v>6381500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="L49" s="3">
         <v>6403300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="M49" s="3">
         <v>6458000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="N49" s="3">
         <v>6593100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>7117500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="P49" s="3">
         <v>7273900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="Q49" s="3">
         <v>3832500</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2090,8 +2510,20 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2125,43 +2557,67 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1169600</v>
+        <v>1400700</v>
       </c>
       <c r="E52" s="3">
-        <v>1137700</v>
+        <v>1383900</v>
       </c>
       <c r="F52" s="3">
-        <v>1086900</v>
+        <v>1339500</v>
       </c>
       <c r="G52" s="3">
+        <v>1275700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1144600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1113400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1063600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1006000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="L52" s="3">
         <v>830200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="M52" s="3">
         <v>698900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="N52" s="3">
         <v>745800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>769500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="P52" s="3">
         <v>759700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="Q52" s="3">
         <v>777400</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2195,43 +2651,67 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>22593400</v>
+        <v>24847300</v>
       </c>
       <c r="E54" s="3">
-        <v>21831200</v>
+        <v>22727700</v>
       </c>
       <c r="F54" s="3">
-        <v>21024700</v>
+        <v>21997200</v>
       </c>
       <c r="G54" s="3">
+        <v>22355900</v>
+      </c>
+      <c r="H54" s="3">
+        <v>22110300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>21364400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>20575200</v>
+      </c>
+      <c r="K54" s="3">
         <v>20918600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>20407800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>19630800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>19379100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>20336000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>20196500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="Q54" s="3">
         <v>17375000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2245,8 +2725,12 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2260,13 +2744,17 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="3">
-        <v>1081600</v>
+      <c r="D57" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>50</v>
@@ -2278,7 +2766,7 @@
         <v>50</v>
       </c>
       <c r="H57" s="3">
-        <v>939400</v>
+        <v>1058500</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>50</v>
@@ -2290,188 +2778,260 @@
         <v>50</v>
       </c>
       <c r="L57" s="3">
-        <v>696300</v>
+        <v>939400</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P57" s="3">
+        <v>696300</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>50</v>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>28300</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>50</v>
       </c>
       <c r="L58" s="3">
-        <v>290700</v>
+        <v>28300</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P58" s="3">
+        <v>290700</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3172900</v>
+        <v>5154100</v>
       </c>
       <c r="E59" s="3">
-        <v>3978700</v>
+        <v>4076300</v>
       </c>
       <c r="F59" s="3">
-        <v>3793200</v>
+        <v>4054400</v>
       </c>
       <c r="G59" s="3">
+        <v>4085900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>3105000</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3893600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3712100</v>
+      </c>
+      <c r="K59" s="3">
         <v>3514300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>2589000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>3337000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>3506200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>3375200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>2863800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="Q59" s="3">
         <v>3840900</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4254500</v>
+        <v>5154100</v>
       </c>
       <c r="E60" s="3">
-        <v>3978700</v>
+        <v>4076300</v>
       </c>
       <c r="F60" s="3">
-        <v>3793200</v>
+        <v>4054400</v>
       </c>
       <c r="G60" s="3">
+        <v>4085900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>4163500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>3893600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3712100</v>
+      </c>
+      <c r="K60" s="3">
         <v>3514300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>3556700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>3337000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>3506200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>3375200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>3850800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="Q60" s="3">
         <v>3840900</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3395700</v>
+        <v>3412900</v>
       </c>
       <c r="E61" s="3">
-        <v>3350100</v>
+        <v>3480700</v>
       </c>
       <c r="F61" s="3">
-        <v>3374600</v>
+        <v>3439400</v>
       </c>
       <c r="G61" s="3">
+        <v>3384600</v>
+      </c>
+      <c r="H61" s="3">
+        <v>3323100</v>
+      </c>
+      <c r="I61" s="3">
+        <v>3278500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3302500</v>
+      </c>
+      <c r="K61" s="3">
         <v>3342000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>3366100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="M61" s="3">
         <v>3362300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="N61" s="3">
         <v>3360900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>3568700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="P61" s="3">
         <v>3605700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="Q61" s="3">
         <v>2806100</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1882100</v>
+        <v>2454000</v>
       </c>
       <c r="E62" s="3">
-        <v>1987700</v>
+        <v>1916700</v>
       </c>
       <c r="F62" s="3">
-        <v>1714500</v>
+        <v>1826700</v>
       </c>
       <c r="G62" s="3">
+        <v>1747100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1841900</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1945200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1677900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1651200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="L62" s="3">
         <v>1417700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="M62" s="3">
         <v>1322500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="N62" s="3">
         <v>1255500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="O62" s="3">
         <v>1368800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="P62" s="3">
         <v>1212700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="Q62" s="3">
         <v>735000</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2505,8 +3065,20 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2540,8 +3112,20 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2575,43 +3159,67 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9532300</v>
+        <v>11021100</v>
       </c>
       <c r="E66" s="3">
-        <v>9316600</v>
+        <v>9473700</v>
       </c>
       <c r="F66" s="3">
-        <v>8882300</v>
+        <v>9320500</v>
       </c>
       <c r="G66" s="3">
+        <v>9217600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>9328500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>9117400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>8692400</v>
+      </c>
+      <c r="K66" s="3">
         <v>8507500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>8316800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>8021800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>8122600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>8312700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>8669200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>7382100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2625,8 +3233,12 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2660,8 +3272,20 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2695,8 +3319,20 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2730,8 +3366,20 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2765,8 +3413,20 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2800,8 +3460,20 @@
       <c r="M72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2835,8 +3507,20 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2870,8 +3554,20 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2905,43 +3601,67 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13061100</v>
+        <v>13826200</v>
       </c>
       <c r="E76" s="3">
-        <v>12514700</v>
+        <v>13254100</v>
       </c>
       <c r="F76" s="3">
-        <v>12142400</v>
+        <v>12676700</v>
       </c>
       <c r="G76" s="3">
+        <v>13138300</v>
+      </c>
+      <c r="H76" s="3">
+        <v>12781800</v>
+      </c>
+      <c r="I76" s="3">
+        <v>12247100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>11882800</v>
+      </c>
+      <c r="K76" s="3">
         <v>12411100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>12091000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>11609000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>11256500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>12023300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>11527400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>9992900</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2975,83 +3695,119 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43737</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43282</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43191</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>42918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>42827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>883600</v>
+        <v>1245200</v>
       </c>
       <c r="E81" s="3">
-        <v>763400</v>
+        <v>688200</v>
       </c>
       <c r="F81" s="3">
-        <v>655200</v>
+        <v>522600</v>
       </c>
       <c r="G81" s="3">
+        <v>390200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>864700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>747100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>641200</v>
+      </c>
+      <c r="K81" s="3">
         <v>605500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>663300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>625100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>523200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>530700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>615300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="Q81" s="3">
         <v>464700</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3065,43 +3821,59 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>123900</v>
+        <v>134900</v>
       </c>
       <c r="E83" s="3">
         <v>123400</v>
       </c>
       <c r="F83" s="3">
-        <v>111900</v>
+        <v>119000</v>
       </c>
       <c r="G83" s="3">
         <v>115100</v>
       </c>
       <c r="H83" s="3">
+        <v>121200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>120800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>109500</v>
+      </c>
+      <c r="K83" s="3">
+        <v>115100</v>
+      </c>
+      <c r="L83" s="3">
         <v>114800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="M83" s="3">
         <v>113500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="N83" s="3">
         <v>116600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="O83" s="3">
         <v>129200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="P83" s="3">
         <v>121100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="Q83" s="3">
         <v>102900</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3135,8 +3907,20 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3170,8 +3954,20 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3205,8 +4001,20 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3240,8 +4048,20 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3275,43 +4095,67 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1829300</v>
+        <v>3940000</v>
       </c>
       <c r="E89" s="3">
-        <v>552200</v>
+        <v>76200</v>
       </c>
       <c r="F89" s="3">
-        <v>851700</v>
+        <v>109300</v>
       </c>
       <c r="G89" s="3">
+        <v>-527900</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1790200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>540400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>833500</v>
+      </c>
+      <c r="K89" s="3">
         <v>214300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>1163200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>448800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>595000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>-197700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>1400700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="Q89" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3325,43 +4169,59 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-213300</v>
+        <v>-335400</v>
       </c>
       <c r="E91" s="3">
-        <v>-144800</v>
+        <v>-204000</v>
       </c>
       <c r="F91" s="3">
         <v>-140900</v>
       </c>
       <c r="G91" s="3">
+        <v>-161400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-208700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-141800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-137900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-145000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="L91" s="3">
         <v>-166400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="M91" s="3">
         <v>-107400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="N91" s="3">
         <v>-63200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="O91" s="3">
         <v>-51400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="P91" s="3">
         <v>-113700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="Q91" s="3">
         <v>-80900</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3395,8 +4255,20 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3430,43 +4302,67 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-411800</v>
+        <v>-1116000</v>
       </c>
       <c r="E94" s="3">
-        <v>-274700</v>
+        <v>-8000</v>
       </c>
       <c r="F94" s="3">
-        <v>-69500</v>
+        <v>229000</v>
       </c>
       <c r="G94" s="3">
+        <v>-376000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-420500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-262800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="K94" s="3">
         <v>204400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="L94" s="3">
         <v>-598400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="M94" s="3">
         <v>-80300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="N94" s="3">
         <v>-847000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>176700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="P94" s="3">
         <v>-2931900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="Q94" s="3">
         <v>-568700</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3480,19 +4376,23 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-484500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-669900</v>
+        <v>-971100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3504,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-655600</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3515,8 +4415,20 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3550,8 +4462,20 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3585,8 +4509,20 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3620,109 +4556,157 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-396100</v>
+        <v>-688000</v>
       </c>
       <c r="E100" s="3">
-        <v>-410500</v>
+        <v>-155900</v>
       </c>
       <c r="F100" s="3">
-        <v>-948300</v>
+        <v>-983400</v>
       </c>
       <c r="G100" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-387600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-401800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-928000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-179700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>-362000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>-172800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>-835100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>13900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>1518100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="Q100" s="3">
         <v>1738600</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8400</v>
+        <v>1000</v>
       </c>
       <c r="E101" s="3">
-        <v>-4500</v>
+        <v>5400</v>
       </c>
       <c r="F101" s="3">
-        <v>10000</v>
+        <v>-4800</v>
       </c>
       <c r="G101" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H101" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-8100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="M101" s="3">
         <v>-12300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="N101" s="3">
         <v>-30900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="O101" s="3">
         <v>11500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="P101" s="3">
         <v>5900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="Q101" s="3">
         <v>-8300</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1029900</v>
+        <v>2136900</v>
       </c>
       <c r="E102" s="3">
-        <v>-137400</v>
+        <v>-82400</v>
       </c>
       <c r="F102" s="3">
-        <v>-156100</v>
+        <v>-649900</v>
       </c>
       <c r="G102" s="3">
+        <v>-953200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1007900</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-134500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-152700</v>
+      </c>
+      <c r="K102" s="3">
         <v>230900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>203500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>183300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>-1118000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>4300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
         <v>-7200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="Q102" s="3">
         <v>1158400</v>
       </c>
     </row>
